--- a/中文/Blah.xlsx
+++ b/中文/Blah.xlsx
@@ -14,18 +14,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>中文</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">你的呼吸道感染是由冠状病毒引起的。  </t>
-  </si>
-  <si>
-    <t>Your respiratory infection is caused by a coronavirus.</t>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Final Count</t>
+  </si>
+  <si>
+    <t>DeepL</t>
+  </si>
+  <si>
+    <t>DeepL Count</t>
+  </si>
+  <si>
+    <t>Final - DeepL</t>
+  </si>
+  <si>
+    <t>Google Translate</t>
+  </si>
+  <si>
+    <t>Google Translate Count</t>
+  </si>
+  <si>
+    <t>Final - Google</t>
+  </si>
+  <si>
+    <t>SoGou</t>
+  </si>
+  <si>
+    <t>SoGou Count</t>
+  </si>
+  <si>
+    <t>Final - SoGou</t>
+  </si>
+  <si>
+    <t>每年农历七月初七</t>
+  </si>
+  <si>
+    <t>相传牛郎织女鹊桥相会的日子</t>
+  </si>
+  <si>
+    <t>姑娘们就会来到花前月下</t>
+  </si>
+  <si>
+    <t>抬头仰望星空</t>
+  </si>
+  <si>
+    <t>寻找银河两边的牛郎星和织女星</t>
+  </si>
+  <si>
+    <t>希望能看到他们一年一度的相会</t>
+  </si>
+  <si>
+    <t>乞求上天能让自己能象织女那样心灵手巧</t>
+  </si>
+  <si>
+    <t>祈祷自己能有如意称心的美满婚姻</t>
+  </si>
+  <si>
+    <t>由此形成了七夕节。</t>
+  </si>
+  <si>
+    <t>年轻人，你有什么事情吗？</t>
+  </si>
+  <si>
+    <t>The seventh day of the seventh month of the lunar calendar</t>
+  </si>
+  <si>
+    <t>Legend has it that on the day of the meeting between the Cowherd and the Weaving Maiden on the Magpie Bridge</t>
+  </si>
+  <si>
+    <t>The girls would come to the moonlight in front of the flowers</t>
+  </si>
+  <si>
+    <t>Look up at the starry sky</t>
+  </si>
+  <si>
+    <t>Looking for the stars of Niulang and Vega on both sides of the Milky Way</t>
+  </si>
+  <si>
+    <t>hoping to see their annual rendezvous</t>
+  </si>
+  <si>
+    <t>Begging the heavens to let them be as skillful as the weaving maiden</t>
+  </si>
+  <si>
+    <t>Praying that they will have a happy marriage as they wish</t>
+  </si>
+  <si>
+    <t>This led to the Tanabata Festival.</t>
+  </si>
+  <si>
+    <t>Young man, do you have something to do?</t>
+  </si>
+  <si>
+    <t>Every year on the seventh day of the seventh lunar month</t>
+  </si>
+  <si>
+    <t>According to legend, the day when the Cowherd and the Weaver Girl met on the Magpie Bridge</t>
+  </si>
+  <si>
+    <t>The girls will come to Huaqian Yuexia</t>
+  </si>
+  <si>
+    <t>Look up at the stars</t>
+  </si>
+  <si>
+    <t>Look for Altair and Vega on both sides of the Milky Way</t>
+  </si>
+  <si>
+    <t>Hope to see them meet once a year</t>
+  </si>
+  <si>
+    <t>I beg God to be able to be as smart as the Weaver Girl</t>
+  </si>
+  <si>
+    <t>Pray for a happy and satisfying marriage</t>
+  </si>
+  <si>
+    <t>Thus formed the Qixi Festival.</t>
+  </si>
+  <si>
+    <t>Young man, what do you want?</t>
+  </si>
+  <si>
+    <t>Legend has it that the Cowherd and Weaver Girl meet on the Magpie Bridge</t>
+  </si>
+  <si>
+    <t>The girls will come before the flowers</t>
+  </si>
+  <si>
+    <t>Looking for Altair and Vega on both sides of the Milky Way</t>
+  </si>
+  <si>
+    <t>I hope to see them meet once a year</t>
+  </si>
+  <si>
+    <t>Begging God to make himself as ingenious as Weaver Girl</t>
+  </si>
+  <si>
+    <t>Pray that you can have a happy marriage</t>
+  </si>
+  <si>
+    <t>Thus formed the Chinese Valentine's Day.</t>
+  </si>
+  <si>
+    <t>Young man, what can I do for you?</t>
   </si>
 </sst>
 </file>
@@ -383,26 +521,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
